--- a/biology/Médecine/Diana_Harshbarger/Diana_Harshbarger.xlsx
+++ b/biology/Médecine/Diana_Harshbarger/Diana_Harshbarger.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Diana Harshbarger, née le 1er janvier 1960[1] est une femme politique et pharmacienne américaine de l'État du Tennessee. Républicaine, elle est membre de la Chambre des représentants des États-Unis pour le 1er district congressionnel du Tennessee depuis 2021.
+Diana Harshbarger, née le 1er janvier 1960 est une femme politique et pharmacienne américaine de l'État du Tennessee. Républicaine, elle est membre de la Chambre des représentants des États-Unis pour le 1er district congressionnel du Tennessee depuis 2021.
 </t>
         </is>
       </c>
@@ -512,10 +524,12 @@
           <t>Jeunesse et carrière</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Diana Harshbarger est née à Kingsport, Tennessee et grandit à Bloomingdale (en). Elle est la première personne de sa famille à obtenir un diplôme d'études secondaires[2]. Elle obtient un baccalauréat de l'université d'État de l'Est du Tennessee (en) et un doctorat en pharmacie à l'université de Mercer[3].
-Elle est pharmacienne agréée depuis 1987[4]. Elle et son mari, Bob, exploitent Premier Pharmacy, une pharmacie de préparation[5].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Diana Harshbarger est née à Kingsport, Tennessee et grandit à Bloomingdale (en). Elle est la première personne de sa famille à obtenir un diplôme d'études secondaires. Elle obtient un baccalauréat de l'université d'État de l'Est du Tennessee (en) et un doctorat en pharmacie à l'université de Mercer.
+Elle est pharmacienne agréée depuis 1987. Elle et son mari, Bob, exploitent Premier Pharmacy, une pharmacie de préparation.
 </t>
         </is>
       </c>
@@ -546,11 +560,51 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Élection 2020
-Lorsque le député sortant Phil Roe choisit de ne pas se représenter à la Chambre des représentants des États-Unis, Diana Harshbarger annonce sa candidature pour lui succéder dans le 1er district du Tennessee, aux élections de 2020[6]. Elle remporte la primaire républicaine du 5 août 2020 et vainc le démocrate Blair Walsingham aux élections générales de novembre[7],[8],[9]. Elle est la cinquième femme élue au Congrès du Tennessee, mais seulement la troisième à ne pas remplacer son mari après Diane Black et Marsha Blackburn. Diana Harshbarger concentre sa campagne sur la résolution de la crise des opioïdes, la promotion d'une législation anti-avortement et la protection de la liberté religieuse[10].
-En 2021, alors que le Congrès se préparait à débattre de la loi sur le budget des forces armées pour l'année 2022, Diana Harshbarger a acheté pour plusieurs milliers ou dizaines de milliers de dollars d'actions d'entreprises du secteur de l'armement et pourrait avoir violé la loi fédérale en tardant à divulguer ses intérêts[11].
-Adhésions au caucus
-Freedom Caucus[12]</t>
+          <t>Élection 2020</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Lorsque le député sortant Phil Roe choisit de ne pas se représenter à la Chambre des représentants des États-Unis, Diana Harshbarger annonce sa candidature pour lui succéder dans le 1er district du Tennessee, aux élections de 2020. Elle remporte la primaire républicaine du 5 août 2020 et vainc le démocrate Blair Walsingham aux élections générales de novembre. Elle est la cinquième femme élue au Congrès du Tennessee, mais seulement la troisième à ne pas remplacer son mari après Diane Black et Marsha Blackburn. Diana Harshbarger concentre sa campagne sur la résolution de la crise des opioïdes, la promotion d'une législation anti-avortement et la protection de la liberté religieuse.
+En 2021, alors que le Congrès se préparait à débattre de la loi sur le budget des forces armées pour l'année 2022, Diana Harshbarger a acheté pour plusieurs milliers ou dizaines de milliers de dollars d'actions d'entreprises du secteur de l'armement et pourrait avoir violé la loi fédérale en tardant à divulguer ses intérêts.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Diana_Harshbarger</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Diana_Harshbarger</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Chambre des représentants des États-Unis</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Adhésions au caucus</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Freedom Caucus</t>
         </is>
       </c>
     </row>
